--- a/py_scripts/mopac_vs_nwchem_gradients.xlsx
+++ b/py_scripts/mopac_vs_nwchem_gradients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="13215"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,17 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -913,137 +920,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,9 +1123,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1142,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1161,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1236,22 +1249,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1260,13 +1273,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1287,10 +1300,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:Y31"/>
+  <dimension ref="A2:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1857,6 +1870,7 @@
     <col min="30" max="31" width="11.4285714285714"/>
   </cols>
   <sheetData>
+    <row r="2" ht="15.75"/>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1868,16 +1882,16 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="J3" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="77"/>
+      <c r="J3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
@@ -1894,20 +1908,20 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59" t="s">
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="78"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" ht="15.75" spans="1:17">
       <c r="A5" s="7"/>
@@ -1930,24 +1944,24 @@
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="61" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="81" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1982,28 +1996,28 @@
         <f>Q6*$P$23</f>
         <v>-225.409743830592</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="64">
         <v>1</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="64">
-        <v>0</v>
-      </c>
-      <c r="M6" s="65">
-        <v>0</v>
-      </c>
-      <c r="N6" s="66">
-        <v>0</v>
-      </c>
-      <c r="O6" s="64">
-        <v>0</v>
-      </c>
-      <c r="P6" s="65">
+      <c r="L6" s="66">
+        <v>0</v>
+      </c>
+      <c r="M6" s="67">
+        <v>0</v>
+      </c>
+      <c r="N6" s="68">
+        <v>0</v>
+      </c>
+      <c r="O6" s="66">
+        <v>0</v>
+      </c>
+      <c r="P6" s="67">
         <v>-0.036825</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="68">
         <v>-0.045432</v>
       </c>
     </row>
@@ -2038,28 +2052,28 @@
         <f>Q7*$P$23</f>
         <v>170.40186766732</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="64">
         <v>2</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="67">
-        <v>0</v>
-      </c>
-      <c r="M7" s="68">
+      <c r="L7" s="69">
+        <v>0</v>
+      </c>
+      <c r="M7" s="70">
         <v>2.040904</v>
       </c>
-      <c r="N7" s="69">
-        <v>0</v>
-      </c>
-      <c r="O7" s="67">
-        <v>0</v>
-      </c>
-      <c r="P7" s="68">
+      <c r="N7" s="71">
+        <v>0</v>
+      </c>
+      <c r="O7" s="69">
+        <v>0</v>
+      </c>
+      <c r="P7" s="70">
         <v>-0.010431</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="71">
         <v>0.034345</v>
       </c>
     </row>
@@ -2094,28 +2108,28 @@
         <f>Q8*$P$23</f>
         <v>209.364332852688</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="64">
         <v>3</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="67">
+      <c r="L8" s="69">
         <v>1.927521</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="70">
         <v>-0.680301</v>
       </c>
-      <c r="N8" s="69">
-        <v>0</v>
-      </c>
-      <c r="O8" s="67">
+      <c r="N8" s="71">
+        <v>0</v>
+      </c>
+      <c r="O8" s="69">
         <v>0.003028</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="70">
         <v>0.021743</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="71">
         <v>0.042198</v>
       </c>
     </row>
@@ -2150,28 +2164,28 @@
         <f>Q9*$P$23</f>
         <v>209.364332852688</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="64">
         <v>4</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="69">
         <v>-1.927521</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="70">
         <v>-0.680301</v>
       </c>
-      <c r="N9" s="69">
-        <v>0</v>
-      </c>
-      <c r="O9" s="67">
+      <c r="N9" s="71">
+        <v>0</v>
+      </c>
+      <c r="O9" s="69">
         <v>-0.003028</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="70">
         <v>0.021743</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="Q9" s="71">
         <v>0.042198</v>
       </c>
     </row>
@@ -2206,28 +2220,28 @@
         <f>Q10*$P$23</f>
         <v>-363.715828066848</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="72">
         <v>5</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="72">
-        <v>0</v>
-      </c>
-      <c r="M10" s="73">
-        <v>0</v>
-      </c>
-      <c r="N10" s="74">
+      <c r="L10" s="74">
+        <v>0</v>
+      </c>
+      <c r="M10" s="75">
+        <v>0</v>
+      </c>
+      <c r="N10" s="76">
         <v>3.363712</v>
       </c>
-      <c r="O10" s="72">
-        <v>0</v>
-      </c>
-      <c r="P10" s="73">
+      <c r="O10" s="74">
+        <v>0</v>
+      </c>
+      <c r="P10" s="75">
         <v>0.00377</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="76">
         <v>-0.073308</v>
       </c>
     </row>
@@ -2255,16 +2269,16 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="77"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="79"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="19" t="s">
@@ -2281,20 +2295,20 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59" t="s">
+      <c r="K14" s="61"/>
+      <c r="L14" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59" t="s">
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="78"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="80"/>
     </row>
     <row r="15" ht="15.75" spans="1:17">
       <c r="A15" s="22"/>
@@ -2308,347 +2322,347 @@
       <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="61" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="61" t="s">
+      <c r="N15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="O15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="61" t="s">
+      <c r="P15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="79" t="s">
+      <c r="Q15" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:25">
-      <c r="A16" s="25">
+      <c r="A16" s="26">
         <v>1</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
         <f>N16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="31">
         <f>O16*$P$22*-(1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="31">
         <f>P16*$P$22</f>
         <v>-131.576837896</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="31">
         <f>Q16*$P$22*(-1)</f>
         <v>-333.855380584</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="64">
         <v>1</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="65">
-        <v>0</v>
-      </c>
-      <c r="M16" s="64">
-        <v>0</v>
-      </c>
-      <c r="N16" s="66">
-        <v>0</v>
-      </c>
-      <c r="O16" s="65">
-        <v>0</v>
-      </c>
-      <c r="P16" s="64">
+      <c r="L16" s="67">
+        <v>0</v>
+      </c>
+      <c r="M16" s="66">
+        <v>0</v>
+      </c>
+      <c r="N16" s="68">
+        <v>0</v>
+      </c>
+      <c r="O16" s="67">
+        <v>0</v>
+      </c>
+      <c r="P16" s="66">
         <v>-31.447619</v>
       </c>
-      <c r="Q16" s="66">
+      <c r="Q16" s="68">
         <v>79.793351</v>
       </c>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
     </row>
     <row r="17" ht="15.75" spans="1:25">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>2</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33">
         <v>1.08</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <f>N17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="31">
         <f>O17*$P$22*-(1)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="31">
         <f>P17*$P$22</f>
         <v>-149.392075592</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="31">
         <f>Q17*$P$22*(-1)</f>
         <v>169.720474728</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="64">
         <v>2</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="68">
-        <v>0</v>
-      </c>
-      <c r="M17" s="67">
+      <c r="L17" s="70">
+        <v>0</v>
+      </c>
+      <c r="M17" s="69">
         <v>1.08</v>
       </c>
-      <c r="N17" s="69">
-        <v>0</v>
-      </c>
-      <c r="O17" s="68">
-        <v>0</v>
-      </c>
-      <c r="P17" s="67">
+      <c r="N17" s="71">
+        <v>0</v>
+      </c>
+      <c r="O17" s="70">
+        <v>0</v>
+      </c>
+      <c r="P17" s="69">
         <v>-35.705563</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="71">
         <v>-40.564167</v>
       </c>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="25">
+    <row r="18" ht="15.75" spans="1:25">
+      <c r="A18" s="26">
         <v>3</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="32">
         <v>1.02</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="33">
         <v>-0.36</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="30">
         <f>N18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="31">
         <f>O18*$P$22*-(1)</f>
         <v>41.63019332</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="31">
         <f>P18*$P$22</f>
         <v>126.349549128</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="31">
         <f>Q18*$P$22*(-1)</f>
         <v>193.806064024</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="64">
         <v>3</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="70">
         <v>1.02</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="69">
         <v>-0.36</v>
       </c>
-      <c r="N18" s="69">
-        <v>0</v>
-      </c>
-      <c r="O18" s="68">
+      <c r="N18" s="71">
+        <v>0</v>
+      </c>
+      <c r="O18" s="70">
         <v>-9.949855</v>
       </c>
-      <c r="P18" s="67">
+      <c r="P18" s="69">
         <v>30.198267</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="71">
         <v>-46.320761</v>
       </c>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
     </row>
     <row r="19" ht="15.75" spans="1:25">
-      <c r="A19" s="25">
+      <c r="A19" s="26">
         <v>4</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="32">
         <f>-C18</f>
         <v>-1.02</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="33">
         <v>-0.36</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <f>N19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="31">
         <f>O19*$P$22*-(1)</f>
         <v>-41.63019332</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="31">
         <f>P19*$P$22</f>
         <v>126.236756856</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="31">
         <f>Q19*$P$22*(-1)</f>
         <v>193.806821328</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="64">
         <v>4</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="70">
         <f>-L18</f>
         <v>-1.02</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="69">
         <v>-0.36</v>
       </c>
-      <c r="N19" s="69">
-        <v>0</v>
-      </c>
-      <c r="O19" s="68">
+      <c r="N19" s="71">
+        <v>0</v>
+      </c>
+      <c r="O19" s="70">
         <v>9.949855</v>
       </c>
-      <c r="P19" s="67">
+      <c r="P19" s="69">
         <v>30.171309</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="71">
         <v>-46.320942</v>
       </c>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
     </row>
     <row r="20" ht="15.75" spans="1:25">
-      <c r="A20" s="32">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="34">
-        <v>0</v>
-      </c>
-      <c r="D20" s="35">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
         <f>N20</f>
         <v>-1.78</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="31">
         <f>O20*$P$22*-(1)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="31">
         <f>P20*$P$22</f>
         <v>28.382607504</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="31">
         <f>Q20*$P$22*(-1)</f>
         <v>-223.477979496</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="72">
         <v>5</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="73">
-        <v>0</v>
-      </c>
-      <c r="M20" s="72">
-        <v>0</v>
-      </c>
-      <c r="N20" s="74">
+      <c r="L20" s="75">
+        <v>0</v>
+      </c>
+      <c r="M20" s="74">
+        <v>0</v>
+      </c>
+      <c r="N20" s="76">
         <v>-1.78</v>
       </c>
-      <c r="O20" s="73">
-        <v>0</v>
-      </c>
-      <c r="P20" s="72">
+      <c r="O20" s="75">
+        <v>0</v>
+      </c>
+      <c r="P20" s="74">
         <v>6.783606</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="76">
         <v>53.412519</v>
       </c>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
     </row>
     <row r="21" spans="6:25">
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="38">
         <v>-52317.6314379587</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
     </row>
     <row r="22" ht="15.75" spans="2:25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="O22" t="s">
         <v>19</v>
       </c>
@@ -2658,25 +2672,25 @@
       <c r="Q22" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="37"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="44">
         <f>G6/G16</f>
         <v>1.38859034176375</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="45">
         <f>H6/H16</f>
         <v>0.675171816719837</v>
       </c>
@@ -2691,25 +2705,25 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="37"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="44" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="47">
         <f>G7/G17</f>
         <v>0.346424990684763</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="48">
         <f>H7/H17</f>
         <v>1.0040147951531</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="O24" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="78">
         <v>1.8897265</v>
       </c>
       <c r="Q24" t="s">
@@ -2717,19 +2731,19 @@
       </c>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="37"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="47">
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="49">
         <f>F8/F18</f>
         <v>0.36087622653317</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="50">
         <f>G8/G18</f>
         <v>0.853800882042891</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="48">
         <f>H8/H18</f>
         <v>1.08027751302334</v>
       </c>
@@ -2744,75 +2758,75 @@
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="37"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="47">
+      <c r="B26" s="39"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="49">
         <f>F9/F19</f>
         <v>0.36087622653317</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="50">
         <f>G9/G19</f>
         <v>0.854563751303158</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="48">
         <f>H9/H19</f>
         <v>1.08027329181752</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="2:8">
-      <c r="B27" s="37"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="49" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="52">
         <f>G10/G20</f>
         <v>0.659021963097785</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="53">
         <f>H10/H20</f>
         <v>1.6275242370059</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="53" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="54" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="55"/>
+      <c r="D31" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="21">
